--- a/data/trans_camb/P19C06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,32</t>
+          <t>-1,92; 2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,08</t>
+          <t>-1,59; 2,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,56</t>
+          <t>-2,4; 0,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,22</t>
+          <t>-2,43; 2,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,17</t>
+          <t>-2,71; 2,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,09</t>
+          <t>-2,2; 1,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,67</t>
+          <t>-1,45; 1,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,48</t>
+          <t>-1,23; 1,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,79</t>
+          <t>-1,63; 0,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,33; 567,46</t>
+          <t>-85,73; 483,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,13; 478,85</t>
+          <t>-73,12; 506,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 172,01</t>
+          <t>-100,0; 176,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 345,72</t>
+          <t>-76,0; 282,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,3; 319,79</t>
+          <t>-82,57; 349,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 312,85</t>
+          <t>-64,77; 254,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 191,81</t>
+          <t>-62,2; 172,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 193,85</t>
+          <t>-59,7; 186,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 90,99</t>
+          <t>-63,52; 108,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,66</t>
+          <t>-2,48; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,61</t>
+          <t>-2,46; 0,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,64</t>
+          <t>-2,68; 0,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,53</t>
+          <t>-0,75; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,58</t>
+          <t>-1,45; 1,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,45</t>
+          <t>-2,16; 0,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,46</t>
+          <t>-1,07; 1,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,85</t>
+          <t>-1,38; 0,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,23</t>
+          <t>-1,64; 0,33</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 226,59</t>
+          <t>-100,0; 302,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 867,34</t>
+          <t>-61,38; 1064,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,51; 427,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-93,16; 140,12</t>
+          <t>-100,0; 184,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 205,47</t>
+          <t>-58,68; 274,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 156,34</t>
+          <t>-76,26; 175,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,18; 50,68</t>
+          <t>-83,44; 79,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,89</t>
+          <t>-1,57; 1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,07</t>
+          <t>-1,76; 2,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,4</t>
+          <t>-2,62; 0,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,9</t>
+          <t>-2,34; 4,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,0</t>
+          <t>-4,4; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,28</t>
+          <t>-4,58; 0,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,03</t>
+          <t>-0,98; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,11</t>
+          <t>-1,86; 1,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,12</t>
+          <t>-2,37; 0,11</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 242,37</t>
+          <t>-63,17; 198,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 232,95</t>
+          <t>-70,8; 247,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,99; 35,84</t>
+          <t>-93,17; 39,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 222,64</t>
+          <t>-42,11; 229,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 140,44</t>
+          <t>-82,12; 138,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,29; 19,26</t>
+          <t>-90,08; 24,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,12</t>
+          <t>-1,73; 0,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,48</t>
+          <t>-1,37; 0,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,35</t>
+          <t>-1,21; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,02</t>
+          <t>-1,05; 1,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,77</t>
+          <t>-0,73; 1,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,86</t>
+          <t>-1,24; 0,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,31</t>
+          <t>-1,06; 0,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,75</t>
+          <t>-0,72; 0,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,82</t>
+          <t>-0,94; 0,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-90,16; 32,6</t>
+          <t>-89,62; 36,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-85,73; 86,37</t>
+          <t>-82,49; 96,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 209,52</t>
+          <t>-77,47; 220,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 217,8</t>
+          <t>-70,66; 278,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 412,6</t>
+          <t>-55,25; 329,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,38; 183,72</t>
+          <t>-71,23; 152,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 43,43</t>
+          <t>-69,31; 54,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 100,04</t>
+          <t>-48,87; 132,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,19; 129,96</t>
+          <t>-62,83; 86,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,55</t>
+          <t>0,26; 2,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,52</t>
+          <t>0,74; 3,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,06</t>
+          <t>0,14; 1,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,2</t>
+          <t>-1,4; 1,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,15</t>
+          <t>-1,59; 1,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,41</t>
+          <t>-1,24; 1,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,34</t>
+          <t>-0,61; 1,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,82</t>
+          <t>-0,49; 1,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,28</t>
+          <t>-0,56; 1,13</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 197,82</t>
+          <t>-70,27; 246,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-79,27; 219,41</t>
+          <t>-77,89; 259,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 282,61</t>
+          <t>-55,96; 260,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 384,04</t>
+          <t>-50,48; 501,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 546,58</t>
+          <t>-43,62; 428,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 330,09</t>
+          <t>-42,72; 311,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,22</t>
+          <t>-0,67; 1,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,64</t>
+          <t>-0,48; 1,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,36</t>
+          <t>-1,17; 0,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,04</t>
+          <t>-0,47; 1,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,43</t>
+          <t>-0,24; 1,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,65</t>
+          <t>-0,74; 0,69</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 255,76</t>
+          <t>-58,02; 276,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 354,5</t>
+          <t>-44,25; 312,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-90,03; 119,72</t>
+          <t>-87,28; 139,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 258,44</t>
+          <t>-53,72; 241,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 345,6</t>
+          <t>-33,67; 360,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,12; 232,01</t>
+          <t>-77,52; 213,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,43</t>
+          <t>-0,69; 0,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,71</t>
+          <t>-0,58; 0,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,34</t>
+          <t>-0,89; 0,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,89</t>
+          <t>-0,32; 0,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,87</t>
+          <t>-0,42; 0,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,4</t>
+          <t>-0,63; 0,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,47</t>
+          <t>-0,33; 0,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,57</t>
+          <t>-0,28; 0,59</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,2</t>
+          <t>-0,56; 0,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 55,96</t>
+          <t>-48,59; 57,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 87,38</t>
+          <t>-39,37; 87,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 49,97</t>
+          <t>-62,22; 45,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 102,61</t>
+          <t>-22,83; 108,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 108,7</t>
+          <t>-27,83; 83,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 45,74</t>
+          <t>-41,75; 46,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 52,55</t>
+          <t>-25,71; 51,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 60,89</t>
+          <t>-21,21; 65,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 23,08</t>
+          <t>-43,46; 20,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
